--- a/Code/Results/Cases/Case_4_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.796526340116003</v>
+        <v>0.2544960331724724</v>
       </c>
       <c r="C2">
-        <v>0.1371134481739205</v>
+        <v>0.047201678941164</v>
       </c>
       <c r="D2">
-        <v>0.1997675662203164</v>
+        <v>0.07895109456468674</v>
       </c>
       <c r="E2">
-        <v>0.3398222292853745</v>
+        <v>0.1657639099158317</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.3174684161670029</v>
+        <v>0.4575342760136678</v>
       </c>
       <c r="H2">
-        <v>0.2675976303081171</v>
+        <v>0.6081937496374437</v>
       </c>
       <c r="I2">
-        <v>0.2286522522047498</v>
+        <v>0.4751391974968548</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.8788729362355241</v>
+        <v>0.2682970138353369</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.5963636799140346</v>
+        <v>0.2191956777404087</v>
       </c>
       <c r="N2">
-        <v>0.6393015228548649</v>
+        <v>1.328724512029542</v>
       </c>
       <c r="O2">
-        <v>1.182549771360769</v>
+        <v>2.087546030305489</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.6943344514869239</v>
+        <v>0.2232889452707525</v>
       </c>
       <c r="C3">
-        <v>0.1215696026314816</v>
+        <v>0.04226020517934614</v>
       </c>
       <c r="D3">
-        <v>0.1734380764336123</v>
+        <v>0.07156561347113666</v>
       </c>
       <c r="E3">
-        <v>0.2958551418833011</v>
+        <v>0.1547355734945413</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.3005218896598052</v>
+        <v>0.4569457636006646</v>
       </c>
       <c r="H3">
-        <v>0.2649947364634642</v>
+        <v>0.6113509066354439</v>
       </c>
       <c r="I3">
-        <v>0.228294273596326</v>
+        <v>0.4785726943279833</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.7680612813438756</v>
+        <v>0.2340793334095821</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.5164407872226704</v>
+        <v>0.1967982620147097</v>
       </c>
       <c r="N3">
-        <v>0.6734631448553166</v>
+        <v>1.343306159277571</v>
       </c>
       <c r="O3">
-        <v>1.140833189520194</v>
+        <v>2.092659347775836</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.6315975582525937</v>
+        <v>0.2041033457231549</v>
       </c>
       <c r="C4">
-        <v>0.1120207304466163</v>
+        <v>0.03920596939185828</v>
       </c>
       <c r="D4">
-        <v>0.1573951763223391</v>
+        <v>0.06706312771380851</v>
       </c>
       <c r="E4">
-        <v>0.2693340663550714</v>
+        <v>0.1480777763533609</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.2908178184870422</v>
+        <v>0.4568957363290878</v>
       </c>
       <c r="H4">
-        <v>0.2638423929796829</v>
+        <v>0.6135501414614097</v>
       </c>
       <c r="I4">
-        <v>0.2285648390825834</v>
+        <v>0.4809330360301907</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.7000157026513989</v>
+        <v>0.2130136801549014</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.4677364379316842</v>
+        <v>0.1831123702986375</v>
       </c>
       <c r="N4">
-        <v>0.6953574246065708</v>
+        <v>1.352717766501861</v>
       </c>
       <c r="O4">
-        <v>1.117629975562835</v>
+        <v>2.096995970917874</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6060268965807154</v>
+        <v>0.1962793947235184</v>
       </c>
       <c r="C5">
-        <v>0.1081268244026177</v>
+        <v>0.03795631765034102</v>
       </c>
       <c r="D5">
-        <v>0.1508849488494377</v>
+        <v>0.0652364718432068</v>
       </c>
       <c r="E5">
-        <v>0.2586333467518784</v>
+        <v>0.1453930639361189</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.2870298747186979</v>
+        <v>0.4569535773651552</v>
       </c>
       <c r="H5">
-        <v>0.2634806244507146</v>
+        <v>0.6145119594796</v>
       </c>
       <c r="I5">
-        <v>0.2287933541975526</v>
+        <v>0.4819582939928821</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.6722766053223808</v>
+        <v>0.2044156547175646</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.4479683006157273</v>
+        <v>0.177551919679523</v>
       </c>
       <c r="N5">
-        <v>0.7045047901024706</v>
+        <v>1.356668324518956</v>
       </c>
       <c r="O5">
-        <v>1.10875101735472</v>
+        <v>2.0990641596957</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6017804104012896</v>
+        <v>0.1949799048838088</v>
       </c>
       <c r="C6">
-        <v>0.1074800431292715</v>
+        <v>0.03774851159772652</v>
       </c>
       <c r="D6">
-        <v>0.149805480234221</v>
+        <v>0.0649336500352149</v>
       </c>
       <c r="E6">
-        <v>0.2568625980565926</v>
+        <v>0.144948979056025</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.2864106713650401</v>
+        <v>0.4569679049164677</v>
       </c>
       <c r="H6">
-        <v>0.2634269435663796</v>
+        <v>0.6146756329038254</v>
       </c>
       <c r="I6">
-        <v>0.2288382980997383</v>
+        <v>0.4821323662349499</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.6676697143108612</v>
+        <v>0.2029871508151189</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.4446902262917618</v>
+        <v>0.1766296177677873</v>
       </c>
       <c r="N6">
-        <v>0.7060371444933757</v>
+        <v>1.357331272006506</v>
       </c>
       <c r="O6">
-        <v>1.107310652346101</v>
+        <v>2.099425758679246</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.6312527323282779</v>
+        <v>0.2039978515155099</v>
       </c>
       <c r="C7">
-        <v>0.1119682284848835</v>
+        <v>0.03918913644696431</v>
       </c>
       <c r="D7">
-        <v>0.1573072709751955</v>
+        <v>0.06703845976866774</v>
       </c>
       <c r="E7">
-        <v>0.2691893362738824</v>
+        <v>0.1480414546588875</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.2907660712017801</v>
+        <v>0.4568961997289946</v>
       </c>
       <c r="H7">
-        <v>0.2638370830015475</v>
+        <v>0.6135628471498151</v>
       </c>
       <c r="I7">
-        <v>0.228567448602746</v>
+        <v>0.4809466063266399</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.6996416544521367</v>
+        <v>0.2128977786553321</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.4674695341252288</v>
+        <v>0.1830373126396694</v>
       </c>
       <c r="N7">
-        <v>0.6954798845291608</v>
+        <v>1.352770578487244</v>
       </c>
       <c r="O7">
-        <v>1.117507934687936</v>
+        <v>2.097022644611471</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.7612841409793134</v>
+        <v>0.2437411391810258</v>
       </c>
       <c r="C8">
-        <v>0.1317540508321144</v>
+        <v>0.0455020644685078</v>
       </c>
       <c r="D8">
-        <v>0.190661253290429</v>
+        <v>0.07639791282230135</v>
       </c>
       <c r="E8">
-        <v>0.3245560132546785</v>
+        <v>0.1619376385490625</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.311473699688591</v>
+        <v>0.4572667063515539</v>
       </c>
       <c r="H8">
-        <v>0.2666049705705973</v>
+        <v>0.6092282527562105</v>
       </c>
       <c r="I8">
-        <v>0.2284239350266404</v>
+        <v>0.4762707259472911</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.8406613312181719</v>
+        <v>0.2565106083622481</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.568721436223953</v>
+        <v>0.2114593067073116</v>
       </c>
       <c r="N8">
-        <v>0.6508861638932388</v>
+        <v>1.333657108271116</v>
       </c>
       <c r="O8">
-        <v>1.167647174310943</v>
+        <v>2.089060641599886</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.016707040524864</v>
+        <v>0.3214684471953433</v>
       </c>
       <c r="C9">
-        <v>0.1705860095002549</v>
+        <v>0.05772055025957457</v>
       </c>
       <c r="D9">
-        <v>0.2572251646135015</v>
+        <v>0.09500672561759416</v>
       </c>
       <c r="E9">
-        <v>0.4375058334910733</v>
+        <v>0.1900995018486356</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.3581104422654562</v>
+        <v>0.4604668039515047</v>
       </c>
       <c r="H9">
-        <v>0.275774774290511</v>
+        <v>0.6027949419234773</v>
       </c>
       <c r="I9">
-        <v>0.2322728361657944</v>
+        <v>0.4691026872680943</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.117555980333663</v>
+        <v>0.3415764362759148</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.7708519588391738</v>
+        <v>0.2677225128029548</v>
       </c>
       <c r="N9">
-        <v>0.5710013366380378</v>
+        <v>1.299813348911132</v>
       </c>
       <c r="O9">
-        <v>1.286515816457438</v>
+        <v>2.082948326736158</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.205174987883964</v>
+        <v>0.378430895990931</v>
       </c>
       <c r="C10">
-        <v>0.1992432941710973</v>
+        <v>0.06659835895675315</v>
       </c>
       <c r="D10">
-        <v>0.3070976329582464</v>
+        <v>0.1088344158860366</v>
       </c>
       <c r="E10">
-        <v>0.5240672149773502</v>
+        <v>0.2113613485988068</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.396736588518479</v>
+        <v>0.4643315831875583</v>
       </c>
       <c r="H10">
-        <v>0.2850942970806187</v>
+        <v>0.5993261354172859</v>
       </c>
       <c r="I10">
-        <v>0.2379699412808129</v>
+        <v>0.4650574648527694</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.321831250548144</v>
+        <v>0.4037795489812765</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.9225141191550819</v>
+        <v>0.3093883727763327</v>
       </c>
       <c r="N10">
-        <v>0.5173161967202971</v>
+        <v>1.277165647630588</v>
       </c>
       <c r="O10">
-        <v>1.388461269344504</v>
+        <v>2.084257620356368</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.291220293614174</v>
+        <v>0.4043102250342656</v>
       </c>
       <c r="C11">
-        <v>0.2123340153590334</v>
+        <v>0.07061544525657837</v>
       </c>
       <c r="D11">
-        <v>0.3300580582636172</v>
+        <v>0.1151589713017245</v>
       </c>
       <c r="E11">
-        <v>0.5644421127565735</v>
+        <v>0.2211614559501811</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4154184998455719</v>
+        <v>0.4664197482418757</v>
       </c>
       <c r="H11">
-        <v>0.2899661988450219</v>
+        <v>0.5980207540376909</v>
       </c>
       <c r="I11">
-        <v>0.2412677534143519</v>
+        <v>0.4634825997908294</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>1.41509375560068</v>
+        <v>0.4320105026572492</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.9924293134558653</v>
+        <v>0.3284166057665914</v>
       </c>
       <c r="N11">
-        <v>0.494074001513825</v>
+        <v>1.267344026769358</v>
       </c>
       <c r="O11">
-        <v>1.438506630113721</v>
+        <v>2.086114584522761</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.323859356747533</v>
+        <v>0.4141048920441222</v>
       </c>
       <c r="C12">
-        <v>0.2173012574835269</v>
+        <v>0.07213349224194587</v>
       </c>
       <c r="D12">
-        <v>0.3387972638296901</v>
+        <v>0.1175588212748266</v>
       </c>
       <c r="E12">
-        <v>0.5798942368853233</v>
+        <v>0.2248911376040326</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4226670597775666</v>
+        <v>0.4672580265950472</v>
       </c>
       <c r="H12">
-        <v>0.2919083827159028</v>
+        <v>0.5975655992791076</v>
       </c>
       <c r="I12">
-        <v>0.2426255029839659</v>
+        <v>0.4629244117077143</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>1.450471286344964</v>
+        <v>0.4426910253042138</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>1.019058061687439</v>
+        <v>0.3356328265992943</v>
       </c>
       <c r="N12">
-        <v>0.4854508798951827</v>
+        <v>1.263694021831136</v>
       </c>
       <c r="O12">
-        <v>1.458029333512172</v>
+        <v>2.086999248842801</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.316827295870382</v>
+        <v>0.4119956777907134</v>
       </c>
       <c r="C13">
-        <v>0.2162309873570507</v>
+        <v>0.07180669392850803</v>
       </c>
       <c r="D13">
-        <v>0.3369130482053322</v>
+        <v>0.1170417544925471</v>
       </c>
       <c r="E13">
-        <v>0.5765587665166763</v>
+        <v>0.2240870539582502</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4210979683886933</v>
+        <v>0.4670753730306245</v>
       </c>
       <c r="H13">
-        <v>0.2914856652156317</v>
+        <v>0.5976618836746752</v>
       </c>
       <c r="I13">
-        <v>0.2423281192046289</v>
+        <v>0.463042929066809</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>1.442849175877456</v>
+        <v>0.4403912331191293</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>1.013315917287265</v>
+        <v>0.3340782115369052</v>
       </c>
       <c r="N13">
-        <v>0.4872999553443962</v>
+        <v>1.264477035515199</v>
       </c>
       <c r="O13">
-        <v>1.453798616342539</v>
+        <v>2.086800648098574</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.293904349613712</v>
+        <v>0.4051161467475026</v>
       </c>
       <c r="C14">
-        <v>0.2127424579980755</v>
+        <v>0.07074039903189089</v>
       </c>
       <c r="D14">
-        <v>0.3307761126883406</v>
+        <v>0.1153563109274529</v>
       </c>
       <c r="E14">
-        <v>0.5657099833756405</v>
+        <v>0.2214679253763947</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4160112674415046</v>
+        <v>0.4664877608034459</v>
       </c>
       <c r="H14">
-        <v>0.2901239954362751</v>
+        <v>0.5979825234546752</v>
       </c>
       <c r="I14">
-        <v>0.2413772288747147</v>
+        <v>0.4634359120089862</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>1.418002987205938</v>
+        <v>0.4328893974979735</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.9946168788525966</v>
+        <v>0.329010075500868</v>
       </c>
       <c r="N14">
-        <v>0.4933609496153952</v>
+        <v>1.267042350777259</v>
       </c>
       <c r="O14">
-        <v>1.440101056609421</v>
+        <v>2.08618372890075</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.27987095915384</v>
+        <v>0.4009015336845323</v>
       </c>
       <c r="C15">
-        <v>0.2106070143529593</v>
+        <v>0.07008685272347748</v>
       </c>
       <c r="D15">
-        <v>0.3270230328183317</v>
+        <v>0.1143245618548434</v>
       </c>
       <c r="E15">
-        <v>0.5590866285580702</v>
+        <v>0.2198660605529028</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4129186369965225</v>
+        <v>0.4661340240554637</v>
       </c>
       <c r="H15">
-        <v>0.2893028010263237</v>
+        <v>0.5981840239868745</v>
       </c>
       <c r="I15">
-        <v>0.2408091960489394</v>
+        <v>0.4636815982129256</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.402792319972576</v>
+        <v>0.4282929989529691</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.9831837915708306</v>
+        <v>0.3259070807847024</v>
       </c>
       <c r="N15">
-        <v>0.4970969542961785</v>
+        <v>1.268622698385693</v>
       </c>
       <c r="O15">
-        <v>1.431786700251365</v>
+        <v>2.085829483787649</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.199558887021539</v>
+        <v>0.3767389104439474</v>
       </c>
       <c r="C16">
-        <v>0.1983890672948831</v>
+        <v>0.06633539666854915</v>
       </c>
       <c r="D16">
-        <v>0.3056030583952065</v>
+        <v>0.1084217766704541</v>
       </c>
       <c r="E16">
-        <v>0.5214503334300957</v>
+        <v>0.2107234801539803</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.3955392412336778</v>
+        <v>0.4642017646087169</v>
       </c>
       <c r="H16">
-        <v>0.2847891664053606</v>
+        <v>0.5994169275664092</v>
       </c>
       <c r="I16">
-        <v>0.2377692524294766</v>
+        <v>0.4651657272212617</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.315744159666025</v>
+        <v>0.4019332278957961</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.9179653022287937</v>
+        <v>0.3081463239271329</v>
       </c>
       <c r="N16">
-        <v>0.5188595838595909</v>
+        <v>1.277817197360243</v>
       </c>
       <c r="O16">
-        <v>1.385268218719574</v>
+        <v>2.084161652909756</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.150377051889137</v>
+        <v>0.3619070692306252</v>
       </c>
       <c r="C17">
-        <v>0.1909092255284293</v>
+        <v>0.06402846549823948</v>
       </c>
       <c r="D17">
-        <v>0.2925362387849617</v>
+        <v>0.1048093512782913</v>
       </c>
       <c r="E17">
-        <v>0.4986306536136098</v>
+        <v>0.2051477185624933</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.3851719678143155</v>
+        <v>0.463100974359449</v>
       </c>
       <c r="H17">
-        <v>0.2821865631811846</v>
+        <v>0.6002430680058097</v>
       </c>
       <c r="I17">
-        <v>0.2360903218547179</v>
+        <v>0.4661441670145265</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.262437857005068</v>
+        <v>0.3857452163320261</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.8782065281235276</v>
+        <v>0.2972696635412078</v>
       </c>
       <c r="N17">
-        <v>0.5325182733185336</v>
+        <v>1.283580953599534</v>
       </c>
       <c r="O17">
-        <v>1.357700880036674</v>
+        <v>2.083461621814081</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.122117465505283</v>
+        <v>0.3533730939654163</v>
       </c>
       <c r="C18">
-        <v>0.1866119916657283</v>
+        <v>0.06269956143408706</v>
       </c>
       <c r="D18">
-        <v>0.2850459264734724</v>
+        <v>0.1027348084086697</v>
       </c>
       <c r="E18">
-        <v>0.4855980251364258</v>
+        <v>0.2019527233928713</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.3793126104783227</v>
+        <v>0.462498891145998</v>
       </c>
       <c r="H18">
-        <v>0.2807487337994559</v>
+        <v>0.6007439021940257</v>
       </c>
       <c r="I18">
-        <v>0.2351906429813901</v>
+        <v>0.4667319120098696</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.231808359313135</v>
+        <v>0.3764281598782304</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.8554239153955905</v>
+        <v>0.2910206844657779</v>
       </c>
       <c r="N18">
-        <v>0.5404848584020185</v>
+        <v>1.286941376867492</v>
       </c>
       <c r="O18">
-        <v>1.342187502539105</v>
+        <v>2.083177702273616</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.1125538298175</v>
+        <v>0.350483120754177</v>
       </c>
       <c r="C19">
-        <v>0.1851578106113436</v>
+        <v>0.06224927219078324</v>
       </c>
       <c r="D19">
-        <v>0.2825140376608175</v>
+        <v>0.1020329598691916</v>
       </c>
       <c r="E19">
-        <v>0.4812007424023008</v>
+        <v>0.2008730142418926</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.3773461069303607</v>
+        <v>0.4623003688255949</v>
       </c>
       <c r="H19">
-        <v>0.2802718763985581</v>
+        <v>0.6009178842300145</v>
       </c>
       <c r="I19">
-        <v>0.2348971448894126</v>
+        <v>0.4669352006082264</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.221442671119178</v>
+        <v>0.3732725252750129</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.8477242105592708</v>
+        <v>0.2889060887062342</v>
       </c>
       <c r="N19">
-        <v>0.5432009275625265</v>
+        <v>1.28808693026945</v>
       </c>
       <c r="O19">
-        <v>1.336992496560669</v>
+        <v>2.083101959477119</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.155609515270072</v>
+        <v>0.3634862677493231</v>
       </c>
       <c r="C20">
-        <v>0.1917049370048005</v>
+        <v>0.06427425149615829</v>
       </c>
       <c r="D20">
-        <v>0.2939245602756415</v>
+        <v>0.105193566331252</v>
       </c>
       <c r="E20">
-        <v>0.501050122020601</v>
+        <v>0.2057400209089622</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.3862647557681953</v>
+        <v>0.4632149400005261</v>
       </c>
       <c r="H20">
-        <v>0.2824574514223883</v>
+        <v>0.6001524684732402</v>
       </c>
       <c r="I20">
-        <v>0.2362621643683056</v>
+        <v>0.4660374257032132</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.268109119651399</v>
+        <v>0.3874690969247752</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.8824299157480198</v>
+        <v>0.2984267795690414</v>
       </c>
       <c r="N20">
-        <v>0.5310527890310892</v>
+        <v>1.28296270682658</v>
       </c>
       <c r="O20">
-        <v>1.360599701257996</v>
+        <v>2.083523853602316</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.300635775069225</v>
+        <v>0.4071369788999846</v>
       </c>
       <c r="C21">
-        <v>0.2137668314935297</v>
+        <v>0.07105368119940181</v>
       </c>
       <c r="D21">
-        <v>0.3325774252436986</v>
+        <v>0.115851234570286</v>
       </c>
       <c r="E21">
-        <v>0.5688919457753698</v>
+        <v>0.2222367207955784</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.4175005093496509</v>
+        <v>0.466659066073305</v>
       </c>
       <c r="H21">
-        <v>0.2905212572772768</v>
+        <v>0.5978872811273561</v>
       </c>
       <c r="I21">
-        <v>0.2416535104585407</v>
+        <v>0.4633194470195789</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>1.425299153006762</v>
+        <v>0.4350931418657069</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>1.000104904780159</v>
+        <v>0.330498421344565</v>
       </c>
       <c r="N21">
-        <v>0.491575781272402</v>
+        <v>1.266286976038415</v>
       </c>
       <c r="O21">
-        <v>1.444108483835777</v>
+        <v>2.086360007203638</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.395748412211333</v>
+        <v>0.4356342720262774</v>
       </c>
       <c r="C22">
-        <v>0.228245429295427</v>
+        <v>0.07546612642819639</v>
       </c>
       <c r="D22">
-        <v>0.3581019284358291</v>
+        <v>0.1228450463662654</v>
       </c>
       <c r="E22">
-        <v>0.614190977167695</v>
+        <v>0.2331267335767961</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4389372277243382</v>
+        <v>0.4691871088775343</v>
       </c>
       <c r="H22">
-        <v>0.2963618353320498</v>
+        <v>0.596635117233518</v>
       </c>
       <c r="I22">
-        <v>0.2458158421537462</v>
+        <v>0.4617656398134073</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>1.528394292421552</v>
+        <v>0.4661601148239072</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>1.07791707810599</v>
+        <v>0.3515211073252544</v>
       </c>
       <c r="N22">
-        <v>0.4668183245739987</v>
+        <v>1.255791980973057</v>
       </c>
       <c r="O22">
-        <v>1.502040664013549</v>
+        <v>2.089271398011505</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.344951019033488</v>
+        <v>0.4204277302989965</v>
       </c>
       <c r="C23">
-        <v>0.2205116588099258</v>
+        <v>0.07311281224362176</v>
       </c>
       <c r="D23">
-        <v>0.3444531473222128</v>
+        <v>0.1191097346244447</v>
       </c>
       <c r="E23">
-        <v>0.5899192679009246</v>
+        <v>0.2273045417459088</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.427397480285407</v>
+        <v>0.4678124653669045</v>
       </c>
       <c r="H23">
-        <v>0.2931901979811045</v>
+        <v>0.5972825454468165</v>
       </c>
       <c r="I23">
-        <v>0.2435333064158236</v>
+        <v>0.4625745643259762</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>1.473332895976711</v>
+        <v>0.4495845675910175</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>1.03629723667553</v>
+        <v>0.3402952405684161</v>
       </c>
       <c r="N23">
-        <v>0.4799334170866079</v>
+        <v>1.261356407201287</v>
       </c>
       <c r="O23">
-        <v>1.470798946360901</v>
+        <v>2.087620715603975</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.153243870473915</v>
+        <v>0.362772333716606</v>
       </c>
       <c r="C24">
-        <v>0.1913451865861617</v>
+        <v>0.06416313979961785</v>
       </c>
       <c r="D24">
-        <v>0.293296832075427</v>
+        <v>0.105019855575037</v>
       </c>
       <c r="E24">
-        <v>0.499956011733282</v>
+        <v>0.2054722080651672</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.3857703930496115</v>
+        <v>0.4631633202751004</v>
       </c>
       <c r="H24">
-        <v>0.2823348012909861</v>
+        <v>0.6001933479192019</v>
       </c>
       <c r="I24">
-        <v>0.2361842707143929</v>
+        <v>0.4660856048712851</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.265545089783387</v>
+        <v>0.3866897627198398</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.8805202893982695</v>
+        <v>0.2979036344619033</v>
       </c>
       <c r="N24">
-        <v>0.5317149799657832</v>
+        <v>1.283242070531576</v>
       </c>
       <c r="O24">
-        <v>1.359288102606968</v>
+        <v>2.083495349378381</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9475079822379087</v>
+        <v>0.3004652270059012</v>
       </c>
       <c r="C25">
-        <v>0.16006683556148</v>
+        <v>0.05443246812561142</v>
       </c>
       <c r="D25">
-        <v>0.2390677919575666</v>
+        <v>0.08994521285126211</v>
       </c>
       <c r="E25">
-        <v>0.4063914741061652</v>
+        <v>0.1823817702852324</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.3447801649921729</v>
+        <v>0.4593356889427014</v>
       </c>
       <c r="H25">
-        <v>0.2728635241131059</v>
+        <v>0.6043142888198787</v>
       </c>
       <c r="I25">
-        <v>0.230754423852737</v>
+        <v>0.4708274640905792</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.042548661955124</v>
+        <v>0.3186145489814578</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.7156906763744004</v>
+        <v>0.2524445402382227</v>
       </c>
       <c r="N25">
-        <v>0.5917632695236361</v>
+        <v>1.308579585464428</v>
       </c>
       <c r="O25">
-        <v>1.251951394036809</v>
+        <v>2.083583892296332</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_136/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_4_136/res_line/pl_mw.xlsx
@@ -421,46 +421,46 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2544960331724724</v>
+        <v>0.7965263401160882</v>
       </c>
       <c r="C2">
-        <v>0.047201678941164</v>
+        <v>0.1371134481738494</v>
       </c>
       <c r="D2">
-        <v>0.07895109456468674</v>
+        <v>0.1997675662203164</v>
       </c>
       <c r="E2">
-        <v>0.1657639099158317</v>
+        <v>0.3398222292853745</v>
       </c>
       <c r="F2">
         <v>0</v>
       </c>
       <c r="G2">
-        <v>0.4575342760136678</v>
+        <v>0.3174684161668893</v>
       </c>
       <c r="H2">
-        <v>0.6081937496374437</v>
+        <v>0.2675976303081171</v>
       </c>
       <c r="I2">
-        <v>0.4751391974968548</v>
+        <v>0.2286522522047356</v>
       </c>
       <c r="J2">
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.2682970138353369</v>
+        <v>0.8788729362354673</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
       <c r="M2">
-        <v>0.2191956777404087</v>
+        <v>0.5963636799140559</v>
       </c>
       <c r="N2">
-        <v>1.328724512029542</v>
+        <v>0.6393015228548076</v>
       </c>
       <c r="O2">
-        <v>2.087546030305489</v>
+        <v>1.182549771360698</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +468,46 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.2232889452707525</v>
+        <v>0.694334451486867</v>
       </c>
       <c r="C3">
-        <v>0.04226020517934614</v>
+        <v>0.1215696026312258</v>
       </c>
       <c r="D3">
-        <v>0.07156561347113666</v>
+        <v>0.1734380764334844</v>
       </c>
       <c r="E3">
-        <v>0.1547355734945413</v>
+        <v>0.2958551418832798</v>
       </c>
       <c r="F3">
         <v>0</v>
       </c>
       <c r="G3">
-        <v>0.4569457636006646</v>
+        <v>0.3005218896598691</v>
       </c>
       <c r="H3">
-        <v>0.6113509066354439</v>
+        <v>0.2649947364635779</v>
       </c>
       <c r="I3">
-        <v>0.4785726943279833</v>
+        <v>0.228294273596326</v>
       </c>
       <c r="J3">
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.2340793334095821</v>
+        <v>0.7680612813440604</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
       <c r="M3">
-        <v>0.1967982620147097</v>
+        <v>0.5164407872226633</v>
       </c>
       <c r="N3">
-        <v>1.343306159277571</v>
+        <v>0.6734631448553059</v>
       </c>
       <c r="O3">
-        <v>2.092659347775836</v>
+        <v>1.140833189520265</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +515,46 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.2041033457231549</v>
+        <v>0.6315975582525937</v>
       </c>
       <c r="C4">
-        <v>0.03920596939185828</v>
+        <v>0.1120207304469147</v>
       </c>
       <c r="D4">
-        <v>0.06706312771380851</v>
+        <v>0.1573951763224954</v>
       </c>
       <c r="E4">
-        <v>0.1480777763533609</v>
+        <v>0.2693340663550643</v>
       </c>
       <c r="F4">
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.4568957363290878</v>
+        <v>0.2908178184870422</v>
       </c>
       <c r="H4">
-        <v>0.6135501414614097</v>
+        <v>0.2638423929796829</v>
       </c>
       <c r="I4">
-        <v>0.4809330360301907</v>
+        <v>0.2285648390825941</v>
       </c>
       <c r="J4">
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.2130136801549014</v>
+        <v>0.70001570265147</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>0.1831123702986375</v>
+        <v>0.4677364379316842</v>
       </c>
       <c r="N4">
-        <v>1.352717766501861</v>
+        <v>0.6953574246065632</v>
       </c>
       <c r="O4">
-        <v>2.096995970917874</v>
+        <v>1.117629975562892</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +562,46 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.1962793947235184</v>
+        <v>0.6060268965807438</v>
       </c>
       <c r="C5">
-        <v>0.03795631765034102</v>
+        <v>0.1081268244025608</v>
       </c>
       <c r="D5">
-        <v>0.0652364718432068</v>
+        <v>0.1508849488496082</v>
       </c>
       <c r="E5">
-        <v>0.1453930639361189</v>
+        <v>0.2586333467518642</v>
       </c>
       <c r="F5">
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.4569535773651552</v>
+        <v>0.2870298747186837</v>
       </c>
       <c r="H5">
-        <v>0.6145119594796</v>
+        <v>0.2634806244507004</v>
       </c>
       <c r="I5">
-        <v>0.4819582939928821</v>
+        <v>0.2287933541975526</v>
       </c>
       <c r="J5">
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.2044156547175646</v>
+        <v>0.6722766053222387</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
       <c r="M5">
-        <v>0.177551919679523</v>
+        <v>0.4479683006157273</v>
       </c>
       <c r="N5">
-        <v>1.356668324518956</v>
+        <v>0.7045047901024004</v>
       </c>
       <c r="O5">
-        <v>2.0990641596957</v>
+        <v>1.10875101735472</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +609,46 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1949799048838088</v>
+        <v>0.6017804104012896</v>
       </c>
       <c r="C6">
-        <v>0.03774851159772652</v>
+        <v>0.1074800431290299</v>
       </c>
       <c r="D6">
-        <v>0.0649336500352149</v>
+        <v>0.1498054802341215</v>
       </c>
       <c r="E6">
-        <v>0.144948979056025</v>
+        <v>0.2568625980566139</v>
       </c>
       <c r="F6">
         <v>0</v>
       </c>
       <c r="G6">
-        <v>0.4569679049164677</v>
+        <v>0.2864106713650472</v>
       </c>
       <c r="H6">
-        <v>0.6146756329038254</v>
+        <v>0.2634269435662446</v>
       </c>
       <c r="I6">
-        <v>0.4821323662349499</v>
+        <v>0.2288382980997667</v>
       </c>
       <c r="J6">
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.2029871508151189</v>
+        <v>0.6676697143109322</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>0.1766296177677873</v>
+        <v>0.4446902262917618</v>
       </c>
       <c r="N6">
-        <v>1.357331272006506</v>
+        <v>0.7060371444933713</v>
       </c>
       <c r="O6">
-        <v>2.099425758679246</v>
+        <v>1.107310652346129</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +656,46 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.2039978515155099</v>
+        <v>0.6312527323283064</v>
       </c>
       <c r="C7">
-        <v>0.03918913644696431</v>
+        <v>0.1119682284848551</v>
       </c>
       <c r="D7">
-        <v>0.06703845976866774</v>
+        <v>0.1573072709751955</v>
       </c>
       <c r="E7">
-        <v>0.1480414546588875</v>
+        <v>0.2691893362738966</v>
       </c>
       <c r="F7">
         <v>0</v>
       </c>
       <c r="G7">
-        <v>0.4568961997289946</v>
+        <v>0.290766071201773</v>
       </c>
       <c r="H7">
-        <v>0.6135628471498151</v>
+        <v>0.2638370830014267</v>
       </c>
       <c r="I7">
-        <v>0.4809466063266399</v>
+        <v>0.2285674486027318</v>
       </c>
       <c r="J7">
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.2128977786553321</v>
+        <v>0.6996416544522504</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>0.1830373126396694</v>
+        <v>0.4674695341252288</v>
       </c>
       <c r="N7">
-        <v>1.352770578487244</v>
+        <v>0.6954798845291608</v>
       </c>
       <c r="O7">
-        <v>2.097022644611471</v>
+        <v>1.117507934687936</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +703,46 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.2437411391810258</v>
+        <v>0.761284140979285</v>
       </c>
       <c r="C8">
-        <v>0.0455020644685078</v>
+        <v>0.1317540508318729</v>
       </c>
       <c r="D8">
-        <v>0.07639791282230135</v>
+        <v>0.1906612532902727</v>
       </c>
       <c r="E8">
-        <v>0.1619376385490625</v>
+        <v>0.3245560132546927</v>
       </c>
       <c r="F8">
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.4572667063515539</v>
+        <v>0.3114736996885981</v>
       </c>
       <c r="H8">
-        <v>0.6092282527562105</v>
+        <v>0.2666049705705973</v>
       </c>
       <c r="I8">
-        <v>0.4762707259472911</v>
+        <v>0.2284239350266368</v>
       </c>
       <c r="J8">
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.2565106083622481</v>
+        <v>0.8406613312180866</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>0.2114593067073116</v>
+        <v>0.5687214362239459</v>
       </c>
       <c r="N8">
-        <v>1.333657108271116</v>
+        <v>0.6508861638932784</v>
       </c>
       <c r="O8">
-        <v>2.089060641599886</v>
+        <v>1.167647174311</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +750,46 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.3214684471953433</v>
+        <v>1.016707040524778</v>
       </c>
       <c r="C9">
-        <v>0.05772055025957457</v>
+        <v>0.1705860094999423</v>
       </c>
       <c r="D9">
-        <v>0.09500672561759416</v>
+        <v>0.2572251646135442</v>
       </c>
       <c r="E9">
-        <v>0.1900995018486356</v>
+        <v>0.4375058334910662</v>
       </c>
       <c r="F9">
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.4604668039515047</v>
+        <v>0.3581104422655699</v>
       </c>
       <c r="H9">
-        <v>0.6027949419234773</v>
+        <v>0.2757747742906247</v>
       </c>
       <c r="I9">
-        <v>0.4691026872680943</v>
+        <v>0.2322728361657944</v>
       </c>
       <c r="J9">
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.3415764362759148</v>
+        <v>1.117555980333492</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>0.2677225128029548</v>
+        <v>0.7708519588391809</v>
       </c>
       <c r="N9">
-        <v>1.299813348911132</v>
+        <v>0.5710013366380333</v>
       </c>
       <c r="O9">
-        <v>2.082948326736158</v>
+        <v>1.286515816457381</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +797,46 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.378430895990931</v>
+        <v>1.205174987883822</v>
       </c>
       <c r="C10">
-        <v>0.06659835895675315</v>
+        <v>0.1992432941710121</v>
       </c>
       <c r="D10">
-        <v>0.1088344158860366</v>
+        <v>0.3070976329580475</v>
       </c>
       <c r="E10">
-        <v>0.2113613485988068</v>
+        <v>0.524067214977336</v>
       </c>
       <c r="F10">
         <v>0</v>
       </c>
       <c r="G10">
-        <v>0.4643315831875583</v>
+        <v>0.396736588518479</v>
       </c>
       <c r="H10">
-        <v>0.5993261354172859</v>
+        <v>0.2850942970806187</v>
       </c>
       <c r="I10">
-        <v>0.4650574648527694</v>
+        <v>0.2379699412808272</v>
       </c>
       <c r="J10">
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.4037795489812765</v>
+        <v>1.321831250548001</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
       <c r="M10">
-        <v>0.3093883727763327</v>
+        <v>0.9225141191550748</v>
       </c>
       <c r="N10">
-        <v>1.277165647630588</v>
+        <v>0.517316196720238</v>
       </c>
       <c r="O10">
-        <v>2.084257620356368</v>
+        <v>1.388461269344418</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +844,46 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>0.4043102250342656</v>
+        <v>1.291220293614174</v>
       </c>
       <c r="C11">
-        <v>0.07061544525657837</v>
+        <v>0.2123340153590334</v>
       </c>
       <c r="D11">
-        <v>0.1151589713017245</v>
+        <v>0.3300580582636883</v>
       </c>
       <c r="E11">
-        <v>0.2211614559501811</v>
+        <v>0.5644421127565877</v>
       </c>
       <c r="F11">
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.4664197482418757</v>
+        <v>0.4154184998456003</v>
       </c>
       <c r="H11">
-        <v>0.5980207540376909</v>
+        <v>0.2899661988450219</v>
       </c>
       <c r="I11">
-        <v>0.4634825997908294</v>
+        <v>0.2412677534143377</v>
       </c>
       <c r="J11">
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.4320105026572492</v>
+        <v>1.415093755600623</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
       <c r="M11">
-        <v>0.3284166057665914</v>
+        <v>0.9924293134558653</v>
       </c>
       <c r="N11">
-        <v>1.267344026769358</v>
+        <v>0.4940740015138299</v>
       </c>
       <c r="O11">
-        <v>2.086114584522761</v>
+        <v>1.438506630113665</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +891,46 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>0.4141048920441222</v>
+        <v>1.323859356747647</v>
       </c>
       <c r="C12">
-        <v>0.07213349224194587</v>
+        <v>0.2173012574835269</v>
       </c>
       <c r="D12">
-        <v>0.1175588212748266</v>
+        <v>0.3387972638297327</v>
       </c>
       <c r="E12">
-        <v>0.2248911376040326</v>
+        <v>0.5798942368853091</v>
       </c>
       <c r="F12">
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.4672580265950472</v>
+        <v>0.4226670597775382</v>
       </c>
       <c r="H12">
-        <v>0.5975655992791076</v>
+        <v>0.2919083827159028</v>
       </c>
       <c r="I12">
-        <v>0.4629244117077143</v>
+        <v>0.2426255029839517</v>
       </c>
       <c r="J12">
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.4426910253042138</v>
+        <v>1.450471286344992</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
       <c r="M12">
-        <v>0.3356328265992943</v>
+        <v>1.019058061687446</v>
       </c>
       <c r="N12">
-        <v>1.263694021831136</v>
+        <v>0.48545087989518</v>
       </c>
       <c r="O12">
-        <v>2.086999248842801</v>
+        <v>1.458029333512172</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +938,46 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>0.4119956777907134</v>
+        <v>1.316827295870468</v>
       </c>
       <c r="C13">
-        <v>0.07180669392850803</v>
+        <v>0.2162309873567096</v>
       </c>
       <c r="D13">
-        <v>0.1170417544925471</v>
+        <v>0.336913048205318</v>
       </c>
       <c r="E13">
-        <v>0.2240870539582502</v>
+        <v>0.5765587665166976</v>
       </c>
       <c r="F13">
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.4670753730306245</v>
+        <v>0.4210979683886791</v>
       </c>
       <c r="H13">
-        <v>0.5976618836746752</v>
+        <v>0.2914856652156317</v>
       </c>
       <c r="I13">
-        <v>0.463042929066809</v>
+        <v>0.2423281192046431</v>
       </c>
       <c r="J13">
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.4403912331191293</v>
+        <v>1.442849175877285</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
       <c r="M13">
-        <v>0.3340782115369052</v>
+        <v>1.013315917287272</v>
       </c>
       <c r="N13">
-        <v>1.264477035515199</v>
+        <v>0.4872999553443318</v>
       </c>
       <c r="O13">
-        <v>2.086800648098574</v>
+        <v>1.453798616342482</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +985,46 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>0.4051161467475026</v>
+        <v>1.293904349613882</v>
       </c>
       <c r="C14">
-        <v>0.07074039903189089</v>
+        <v>0.2127424579983312</v>
       </c>
       <c r="D14">
-        <v>0.1153563109274529</v>
+        <v>0.3307761126882269</v>
       </c>
       <c r="E14">
-        <v>0.2214679253763947</v>
+        <v>0.5657099833756334</v>
       </c>
       <c r="F14">
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.4664877608034459</v>
+        <v>0.4160112674414904</v>
       </c>
       <c r="H14">
-        <v>0.5979825234546752</v>
+        <v>0.2901239954363888</v>
       </c>
       <c r="I14">
-        <v>0.4634359120089862</v>
+        <v>0.2413772288747289</v>
       </c>
       <c r="J14">
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.4328893974979735</v>
+        <v>1.418002987205995</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
       <c r="M14">
-        <v>0.329010075500868</v>
+        <v>0.9946168788526037</v>
       </c>
       <c r="N14">
-        <v>1.267042350777259</v>
+        <v>0.4933609496153877</v>
       </c>
       <c r="O14">
-        <v>2.08618372890075</v>
+        <v>1.440101056609478</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +1032,46 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>0.4009015336845323</v>
+        <v>1.27987095915384</v>
       </c>
       <c r="C15">
-        <v>0.07008685272347748</v>
+        <v>0.2106070143530019</v>
       </c>
       <c r="D15">
-        <v>0.1143245618548434</v>
+        <v>0.3270230328183601</v>
       </c>
       <c r="E15">
-        <v>0.2198660605529028</v>
+        <v>0.5590866285580489</v>
       </c>
       <c r="F15">
         <v>0</v>
       </c>
       <c r="G15">
-        <v>0.4661340240554637</v>
+        <v>0.4129186369965225</v>
       </c>
       <c r="H15">
-        <v>0.5981840239868745</v>
+        <v>0.2893028010263237</v>
       </c>
       <c r="I15">
-        <v>0.4636815982129256</v>
+        <v>0.2408091960489251</v>
       </c>
       <c r="J15">
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.4282929989529691</v>
+        <v>1.402792319972548</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.3259070807847024</v>
+        <v>0.9831837915708022</v>
       </c>
       <c r="N15">
-        <v>1.268622698385693</v>
+        <v>0.4970969542961958</v>
       </c>
       <c r="O15">
-        <v>2.085829483787649</v>
+        <v>1.431786700251337</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +1079,46 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>0.3767389104439474</v>
+        <v>1.199558887021681</v>
       </c>
       <c r="C16">
-        <v>0.06633539666854915</v>
+        <v>0.1983890672946274</v>
       </c>
       <c r="D16">
-        <v>0.1084217766704541</v>
+        <v>0.3056030583951497</v>
       </c>
       <c r="E16">
-        <v>0.2107234801539803</v>
+        <v>0.521450333430117</v>
       </c>
       <c r="F16">
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.4642017646087169</v>
+        <v>0.3955392412337488</v>
       </c>
       <c r="H16">
-        <v>0.5994169275664092</v>
+        <v>0.2847891664053606</v>
       </c>
       <c r="I16">
-        <v>0.4651657272212617</v>
+        <v>0.2377692524294908</v>
       </c>
       <c r="J16">
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.4019332278957961</v>
+        <v>1.315744159666053</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.3081463239271329</v>
+        <v>0.9179653022288079</v>
       </c>
       <c r="N16">
-        <v>1.277817197360243</v>
+        <v>0.5188595838596401</v>
       </c>
       <c r="O16">
-        <v>2.084161652909756</v>
+        <v>1.385268218719574</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +1126,46 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>0.3619070692306252</v>
+        <v>1.150377051889222</v>
       </c>
       <c r="C17">
-        <v>0.06402846549823948</v>
+        <v>0.1909092255282445</v>
       </c>
       <c r="D17">
-        <v>0.1048093512782913</v>
+        <v>0.2925362387848196</v>
       </c>
       <c r="E17">
-        <v>0.2051477185624933</v>
+        <v>0.498630653613624</v>
       </c>
       <c r="F17">
         <v>0</v>
       </c>
       <c r="G17">
-        <v>0.463100974359449</v>
+        <v>0.3851719678142445</v>
       </c>
       <c r="H17">
-        <v>0.6002430680058097</v>
+        <v>0.2821865631810709</v>
       </c>
       <c r="I17">
-        <v>0.4661441670145265</v>
+        <v>0.2360903218547357</v>
       </c>
       <c r="J17">
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.3857452163320261</v>
+        <v>1.262437857005096</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.2972696635412078</v>
+        <v>0.8782065281235418</v>
       </c>
       <c r="N17">
-        <v>1.283580953599534</v>
+        <v>0.5325182733185323</v>
       </c>
       <c r="O17">
-        <v>2.083461621814081</v>
+        <v>1.357700880036674</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +1173,46 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>0.3533730939654163</v>
+        <v>1.122117465505227</v>
       </c>
       <c r="C18">
-        <v>0.06269956143408706</v>
+        <v>0.1866119916657993</v>
       </c>
       <c r="D18">
-        <v>0.1027348084086697</v>
+        <v>0.2850459264734013</v>
       </c>
       <c r="E18">
-        <v>0.2019527233928713</v>
+        <v>0.4855980251363903</v>
       </c>
       <c r="F18">
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.462498891145998</v>
+        <v>0.3793126104782942</v>
       </c>
       <c r="H18">
-        <v>0.6007439021940257</v>
+        <v>0.2807487337995553</v>
       </c>
       <c r="I18">
-        <v>0.4667319120098696</v>
+        <v>0.2351906429813866</v>
       </c>
       <c r="J18">
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.3764281598782304</v>
+        <v>1.23180835931322</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.2910206844657779</v>
+        <v>0.8554239153955976</v>
       </c>
       <c r="N18">
-        <v>1.286941376867492</v>
+        <v>0.5404848584020123</v>
       </c>
       <c r="O18">
-        <v>2.083177702273616</v>
+        <v>1.342187502539133</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1220,46 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>0.350483120754177</v>
+        <v>1.112553829817244</v>
       </c>
       <c r="C19">
-        <v>0.06224927219078324</v>
+        <v>0.1851578106107894</v>
       </c>
       <c r="D19">
-        <v>0.1020329598691916</v>
+        <v>0.2825140376606754</v>
       </c>
       <c r="E19">
-        <v>0.2008730142418926</v>
+        <v>0.4812007424023363</v>
       </c>
       <c r="F19">
         <v>0</v>
       </c>
       <c r="G19">
-        <v>0.4623003688255949</v>
+        <v>0.3773461069303039</v>
       </c>
       <c r="H19">
-        <v>0.6009178842300145</v>
+        <v>0.2802718763984444</v>
       </c>
       <c r="I19">
-        <v>0.4669352006082264</v>
+        <v>0.2348971448894162</v>
       </c>
       <c r="J19">
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.3732725252750129</v>
+        <v>1.221442671119206</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.2889060887062342</v>
+        <v>0.8477242105592921</v>
       </c>
       <c r="N19">
-        <v>1.28808693026945</v>
+        <v>0.5432009275625203</v>
       </c>
       <c r="O19">
-        <v>2.083101959477119</v>
+        <v>1.336992496560697</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1267,46 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>0.3634862677493231</v>
+        <v>1.155609515270186</v>
       </c>
       <c r="C20">
-        <v>0.06427425149615829</v>
+        <v>0.1917049370048005</v>
       </c>
       <c r="D20">
-        <v>0.105193566331252</v>
+        <v>0.2939245602756557</v>
       </c>
       <c r="E20">
-        <v>0.2057400209089622</v>
+        <v>0.5010501220206152</v>
       </c>
       <c r="F20">
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.4632149400005261</v>
+        <v>0.3862647557681385</v>
       </c>
       <c r="H20">
-        <v>0.6001524684732402</v>
+        <v>0.2824574514222888</v>
       </c>
       <c r="I20">
-        <v>0.4660374257032132</v>
+        <v>0.2362621643683127</v>
       </c>
       <c r="J20">
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.3874690969247752</v>
+        <v>1.268109119651371</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
       <c r="M20">
-        <v>0.2984267795690414</v>
+        <v>0.8824299157480127</v>
       </c>
       <c r="N20">
-        <v>1.28296270682658</v>
+        <v>0.5310527890310954</v>
       </c>
       <c r="O20">
-        <v>2.083523853602316</v>
+        <v>1.360599701257996</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1314,46 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>0.4071369788999846</v>
+        <v>1.300635775069225</v>
       </c>
       <c r="C21">
-        <v>0.07105368119940181</v>
+        <v>0.2137668314935439</v>
       </c>
       <c r="D21">
-        <v>0.115851234570286</v>
+        <v>0.3325774252437697</v>
       </c>
       <c r="E21">
-        <v>0.2222367207955784</v>
+        <v>0.5688919457753698</v>
       </c>
       <c r="F21">
         <v>0</v>
       </c>
       <c r="G21">
-        <v>0.466659066073305</v>
+        <v>0.4175005093496509</v>
       </c>
       <c r="H21">
-        <v>0.5978872811273561</v>
+        <v>0.2905212572772626</v>
       </c>
       <c r="I21">
-        <v>0.4633194470195789</v>
+        <v>0.2416535104585407</v>
       </c>
       <c r="J21">
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.4350931418657069</v>
+        <v>1.425299153006819</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
       <c r="M21">
-        <v>0.330498421344565</v>
+        <v>1.000104904780173</v>
       </c>
       <c r="N21">
-        <v>1.266286976038415</v>
+        <v>0.491575781272461</v>
       </c>
       <c r="O21">
-        <v>2.086360007203638</v>
+        <v>1.444108483835834</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1361,46 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>0.4356342720262774</v>
+        <v>1.395748412211361</v>
       </c>
       <c r="C22">
-        <v>0.07546612642819639</v>
+        <v>0.2282454292951996</v>
       </c>
       <c r="D22">
-        <v>0.1228450463662654</v>
+        <v>0.3581019284360565</v>
       </c>
       <c r="E22">
-        <v>0.2331267335767961</v>
+        <v>0.614190977167695</v>
       </c>
       <c r="F22">
         <v>0</v>
       </c>
       <c r="G22">
-        <v>0.4691871088775343</v>
+        <v>0.4389372277243666</v>
       </c>
       <c r="H22">
-        <v>0.596635117233518</v>
+        <v>0.2963618353320641</v>
       </c>
       <c r="I22">
-        <v>0.4617656398134073</v>
+        <v>0.2458158421537568</v>
       </c>
       <c r="J22">
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.4661601148239072</v>
+        <v>1.528394292421581</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
       <c r="M22">
-        <v>0.3515211073252544</v>
+        <v>1.077917078105997</v>
       </c>
       <c r="N22">
-        <v>1.255791980973057</v>
+        <v>0.466818324574009</v>
       </c>
       <c r="O22">
-        <v>2.089271398011505</v>
+        <v>1.502040664013521</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1408,46 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>0.4204277302989965</v>
+        <v>1.344951019033317</v>
       </c>
       <c r="C23">
-        <v>0.07311281224362176</v>
+        <v>0.2205116588097127</v>
       </c>
       <c r="D23">
-        <v>0.1191097346244447</v>
+        <v>0.3444531473223122</v>
       </c>
       <c r="E23">
-        <v>0.2273045417459088</v>
+        <v>0.5899192679009246</v>
       </c>
       <c r="F23">
         <v>0</v>
       </c>
       <c r="G23">
-        <v>0.4678124653669045</v>
+        <v>0.4273974802854354</v>
       </c>
       <c r="H23">
-        <v>0.5972825454468165</v>
+        <v>0.2931901979812324</v>
       </c>
       <c r="I23">
-        <v>0.4625745643259762</v>
+        <v>0.2435333064158236</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.4495845675910175</v>
+        <v>1.473332895976768</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
       <c r="M23">
-        <v>0.3402952405684161</v>
+        <v>1.036297236675523</v>
       </c>
       <c r="N23">
-        <v>1.261356407201287</v>
+        <v>0.4799334170865999</v>
       </c>
       <c r="O23">
-        <v>2.087620715603975</v>
+        <v>1.470798946360958</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1455,46 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>0.362772333716606</v>
+        <v>1.153243870474228</v>
       </c>
       <c r="C24">
-        <v>0.06416313979961785</v>
+        <v>0.191345186586716</v>
       </c>
       <c r="D24">
-        <v>0.105019855575037</v>
+        <v>0.2932968320755407</v>
       </c>
       <c r="E24">
-        <v>0.2054722080651672</v>
+        <v>0.4999560117332962</v>
       </c>
       <c r="F24">
         <v>0</v>
       </c>
       <c r="G24">
-        <v>0.4631633202751004</v>
+        <v>0.3857703930495546</v>
       </c>
       <c r="H24">
-        <v>0.6001933479192019</v>
+        <v>0.2823348012909861</v>
       </c>
       <c r="I24">
-        <v>0.4660856048712851</v>
+        <v>0.2361842707143786</v>
       </c>
       <c r="J24">
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.3866897627198398</v>
+        <v>1.265545089783501</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
       <c r="M24">
-        <v>0.2979036344619033</v>
+        <v>0.8805202893982695</v>
       </c>
       <c r="N24">
-        <v>1.283242070531576</v>
+        <v>0.531714979965777</v>
       </c>
       <c r="O24">
-        <v>2.083495349378381</v>
+        <v>1.359288102606968</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1502,46 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.3004652270059012</v>
+        <v>0.9475079822379087</v>
       </c>
       <c r="C25">
-        <v>0.05443246812561142</v>
+        <v>0.1600668355612385</v>
       </c>
       <c r="D25">
-        <v>0.08994521285126211</v>
+        <v>0.2390677919574529</v>
       </c>
       <c r="E25">
-        <v>0.1823817702852324</v>
+        <v>0.406391474106151</v>
       </c>
       <c r="F25">
         <v>0</v>
       </c>
       <c r="G25">
-        <v>0.4593356889427014</v>
+        <v>0.3447801649921587</v>
       </c>
       <c r="H25">
-        <v>0.6043142888198787</v>
+        <v>0.2728635241131059</v>
       </c>
       <c r="I25">
-        <v>0.4708274640905792</v>
+        <v>0.2307544238527406</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.3186145489814578</v>
+        <v>1.04254866195501</v>
       </c>
       <c r="L25">
         <v>0</v>
       </c>
       <c r="M25">
-        <v>0.2524445402382227</v>
+        <v>0.7156906763744004</v>
       </c>
       <c r="N25">
-        <v>1.308579585464428</v>
+        <v>0.5917632695236401</v>
       </c>
       <c r="O25">
-        <v>2.083583892296332</v>
+        <v>1.251951394036809</v>
       </c>
     </row>
   </sheetData>
